--- a/NEGG.xlsx
+++ b/NEGG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E4AF1B-49E3-4E3E-8AE8-4F9872213521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF093E91-7FE8-4991-8B0D-50C5F589C063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41660" yWindow="2170" windowWidth="28980" windowHeight="14360" activeTab="1" xr2:uid="{D41EE815-3FF7-4F26-8287-DC75508FD1AE}"/>
+    <workbookView xWindow="51640" yWindow="2800" windowWidth="26400" windowHeight="18030" xr2:uid="{D41EE815-3FF7-4F26-8287-DC75508FD1AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Main</t>
   </si>
@@ -82,13 +82,40 @@
   </si>
   <si>
     <t>EV</t>
+  </si>
+  <si>
+    <t>1H24</t>
+  </si>
+  <si>
+    <t>2H24</t>
+  </si>
+  <si>
+    <t>1H25</t>
+  </si>
+  <si>
+    <t>2H25</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>1H23</t>
+  </si>
+  <si>
+    <t>2H23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +124,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -123,13 +157,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,19 +518,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F589076-93B3-4602-A3B5-0F89380D7C3E}">
   <dimension ref="I2:J7"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I2" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="9:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I3" t="s">
         <v>10</v>
       </c>
@@ -486,16 +540,16 @@
         <v>19.478000000000002</v>
       </c>
     </row>
-    <row r="4" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I4" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="4">
         <f>+J2*J3</f>
-        <v>525.90600000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1168.68</v>
+      </c>
+    </row>
+    <row r="5" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I5" t="s">
         <v>12</v>
       </c>
@@ -503,7 +557,7 @@
         <v>96.254999999999995</v>
       </c>
     </row>
-    <row r="6" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I6" t="s">
         <v>13</v>
       </c>
@@ -511,13 +565,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I7" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="4">
         <f>+J4-J5+J6</f>
-        <v>429.65100000000007</v>
+        <v>1072.4250000000002</v>
       </c>
     </row>
   </sheetData>
@@ -527,126 +581,409 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B539EE3-89EB-4D50-BA96-D6B233C658A3}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.1796875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.1796875" style="1"/>
+    <col min="12" max="12" width="10.1796875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C2" s="1">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="K2" s="1">
         <v>2023</v>
       </c>
-      <c r="D2" s="1">
+      <c r="L2" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:13" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="13">
+        <v>723.24900000000002</v>
+      </c>
+      <c r="D3" s="13">
+        <f>+K3-C3</f>
+        <v>773.71399999999994</v>
+      </c>
+      <c r="E3" s="13">
+        <v>618.11900000000003</v>
+      </c>
+      <c r="F3" s="13">
+        <f>+L3-E3</f>
+        <v>617.45699999999999</v>
+      </c>
+      <c r="G3" s="13">
+        <v>678.3</v>
+      </c>
+      <c r="H3" s="13">
+        <f>+G3</f>
+        <v>678.3</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1720.2729999999999</v>
+      </c>
+      <c r="K3" s="12">
         <v>1496.963</v>
       </c>
-      <c r="D3" s="5">
+      <c r="L3" s="12">
         <v>1235.576</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="12">
+        <f>H3+G3</f>
+        <v>1356.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
+        <v>641.97699999999998</v>
+      </c>
+      <c r="D4" s="7">
+        <f>+K4-C4</f>
+        <v>687.42899999999997</v>
+      </c>
+      <c r="E4" s="7">
+        <v>555.00300000000004</v>
+      </c>
+      <c r="F4" s="7">
+        <f>+L4-E4</f>
+        <v>549.08499999999992</v>
+      </c>
+      <c r="G4" s="7">
+        <f>+G3-G5</f>
+        <v>599.29999999999995</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="J4" s="5">
+        <v>1503.6469999999999</v>
+      </c>
+      <c r="K4" s="5">
         <v>1329.4059999999999</v>
       </c>
-      <c r="D4" s="5">
+      <c r="L4" s="5">
         <v>1104.088</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <f>+C3-C4</f>
+        <v>81.272000000000048</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:G5" si="0">+D3-D4</f>
+        <v>86.284999999999968</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>63.115999999999985</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>68.372000000000071</v>
+      </c>
+      <c r="G5" s="7">
+        <v>79</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5" si="1">+J3-J4</f>
+        <v>216.62599999999998</v>
+      </c>
+      <c r="K5" s="5">
+        <f>+K3-K4</f>
         <v>167.55700000000002</v>
       </c>
-      <c r="D5" s="5">
-        <f>+D3-D4</f>
+      <c r="L5" s="5">
+        <f>+L3-L4</f>
         <v>131.48800000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="5">
+        <f>+M3*0.12</f>
+        <v>162.79199999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
+        <v>115.877</v>
+      </c>
+      <c r="D6" s="7">
+        <f>+K6-C6</f>
+        <v>122.764</v>
+      </c>
+      <c r="E6" s="7">
+        <v>93.082999999999998</v>
+      </c>
+      <c r="F6" s="7">
+        <f>+L6-E6</f>
+        <v>89.955999999999989</v>
+      </c>
+      <c r="G6" s="7">
+        <v>90</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="J6" s="5">
+        <v>266.16399999999999</v>
+      </c>
+      <c r="K6" s="5">
         <v>238.64099999999999</v>
       </c>
-      <c r="D6" s="5">
+      <c r="L6" s="5">
         <v>183.03899999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <f>+C5-C6</f>
+        <v>-34.604999999999947</v>
+      </c>
+      <c r="D7" s="7">
+        <f>+D5-D6</f>
+        <v>-36.479000000000028</v>
+      </c>
+      <c r="E7" s="7">
+        <f>+E5-E6</f>
+        <v>-29.967000000000013</v>
+      </c>
+      <c r="F7" s="7">
+        <f>+F5-F6</f>
+        <v>-21.583999999999918</v>
+      </c>
+      <c r="G7" s="7">
+        <f>+G5-G6</f>
+        <v>-11</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="J7" s="5">
+        <f t="shared" ref="J7" si="2">+J5-J6</f>
+        <v>-49.538000000000011</v>
+      </c>
+      <c r="K7" s="5">
+        <f>+K5-K6</f>
         <v>-71.083999999999975</v>
       </c>
-      <c r="D7" s="5">
-        <f>+D5-D6</f>
+      <c r="L7" s="5">
+        <f>+L5-L6</f>
         <v>-51.550999999999931</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="M7" s="5">
+        <f>+M5-M6</f>
+        <v>62.791999999999973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2.3479999999999999</v>
+      </c>
+      <c r="L8" s="5">
+        <v>2.7210000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <f>+C7-C8</f>
+        <v>-34.604999999999947</v>
+      </c>
+      <c r="D9" s="7">
+        <f>+D7-D8</f>
+        <v>-36.479000000000028</v>
+      </c>
+      <c r="E9" s="7">
+        <f>+E7-E8</f>
+        <v>-29.967000000000013</v>
+      </c>
+      <c r="F9" s="7">
+        <f>+F7-F8</f>
+        <v>-21.583999999999918</v>
+      </c>
+      <c r="G9" s="7">
+        <f>+G7-G8</f>
+        <v>-11</v>
+      </c>
+      <c r="J9" s="5">
+        <f>+J7+J8</f>
+        <v>-48.374000000000009</v>
+      </c>
+      <c r="K9" s="5">
+        <f>+K7+K8</f>
+        <v>-68.735999999999976</v>
+      </c>
+      <c r="L9" s="5">
+        <f>+L7+L8</f>
+        <v>-48.829999999999927</v>
+      </c>
+      <c r="M9" s="5">
+        <f>+M7+M8</f>
+        <v>62.791999999999973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="5">
+        <v>18653</v>
+      </c>
+      <c r="K10" s="5">
+        <v>18928</v>
+      </c>
+      <c r="L10" s="5">
+        <v>19285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="5">
+        <v>20.48</v>
+      </c>
+      <c r="K11" s="5">
+        <v>-3.839</v>
+      </c>
+      <c r="L11" s="5">
+        <v>-0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11">
+        <f>+E3/C3-1</f>
+        <v>-0.14535796108947263</v>
+      </c>
+      <c r="F13" s="11">
+        <f>+F3/D3-1</f>
+        <v>-0.20195705389846885</v>
+      </c>
+      <c r="G13" s="11">
+        <f>+G3/E3-1</f>
+        <v>9.7361511294750569E-2</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="K13" s="10">
+        <f>+K3/J3-1</f>
+        <v>-0.12981079165923082</v>
+      </c>
+      <c r="L13" s="10">
+        <f>+L3/K3-1</f>
+        <v>-0.17461153014469966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:G14" si="3">+C5/C3</f>
+        <v>0.11237070497159353</v>
       </c>
       <c r="D14" s="2">
-        <f>+D3/C3-1</f>
-        <v>-0.17461153014469966</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <f>+C5/C3</f>
+        <f t="shared" si="3"/>
+        <v>0.11152053601201474</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10210978792109607</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11073159750395585</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11646763968745394</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" ref="J14:K14" si="4">+J5/J3</f>
+        <v>0.12592536184663713</v>
+      </c>
+      <c r="K14" s="2">
+        <f>+K5/K3</f>
         <v>0.11193129021892995</v>
       </c>
-      <c r="D15" s="2">
-        <f>+D5/D3</f>
+      <c r="L14" s="2">
+        <f>+L5/L3</f>
         <v>0.10641838300517334</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="1">
+      <c r="J18" s="1">
         <v>-3.839</v>
       </c>
-      <c r="D19" s="1">
+      <c r="K18" s="1">
+        <v>-3.839</v>
+      </c>
+      <c r="L18" s="1">
         <v>-0.82099999999999995</v>
       </c>
     </row>

--- a/NEGG.xlsx
+++ b/NEGG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF093E91-7FE8-4991-8B0D-50C5F589C063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEB10AE-0694-411C-9B5D-25200C666229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51640" yWindow="2800" windowWidth="26400" windowHeight="18030" xr2:uid="{D41EE815-3FF7-4F26-8287-DC75508FD1AE}"/>
+    <workbookView xWindow="45870" yWindow="2120" windowWidth="26400" windowHeight="18030" activeTab="1" xr2:uid="{D41EE815-3FF7-4F26-8287-DC75508FD1AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Main</t>
   </si>
@@ -109,6 +109,33 @@
   </si>
   <si>
     <t>2H23</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>1H26</t>
+  </si>
+  <si>
+    <t>2H26</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>Prepaid</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>AR</t>
   </si>
 </sst>
 </file>
@@ -157,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -180,6 +207,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -516,62 +546,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F589076-93B3-4602-A3B5-0F89380D7C3E}">
-  <dimension ref="I2:J7"/>
+  <dimension ref="I2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I2" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="9:10" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I3" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="4">
-        <v>19.478000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="9:10" x14ac:dyDescent="0.35">
+        <v>19.498999999999999</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I4" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="4">
         <f>+J2*J3</f>
-        <v>1168.68</v>
-      </c>
-    </row>
-    <row r="5" spans="9:10" x14ac:dyDescent="0.35">
+        <v>2632.3649999999998</v>
+      </c>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I5" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="4">
-        <v>96.254999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="9:10" x14ac:dyDescent="0.35">
+        <v>59.063000000000002</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I6" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="9:10" x14ac:dyDescent="0.35">
+        <v>15.775</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I7" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="4">
         <f>+J4-J5+J6</f>
-        <v>1072.4250000000002</v>
+        <v>2589.0769999999998</v>
       </c>
     </row>
   </sheetData>
@@ -581,32 +621,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B539EE3-89EB-4D50-BA96-D6B233C658A3}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="9.1796875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.1796875" style="1"/>
-    <col min="12" max="12" width="10.1796875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="10" width="9.1796875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.1796875" style="1"/>
+    <col min="14" max="14" width="10.1796875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
@@ -625,17 +665,23 @@
       <c r="H2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1">
+      <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1">
         <v>2022</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <v>2023</v>
       </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
@@ -643,38 +689,39 @@
         <v>723.24900000000002</v>
       </c>
       <c r="D3" s="13">
-        <f>+K3-C3</f>
+        <f>+M3-C3</f>
         <v>773.71399999999994</v>
       </c>
       <c r="E3" s="13">
         <v>618.11900000000003</v>
       </c>
       <c r="F3" s="13">
-        <f>+L3-E3</f>
+        <f>+N3-E3</f>
         <v>617.45699999999999</v>
       </c>
       <c r="G3" s="13">
-        <v>678.3</v>
+        <v>695.67</v>
       </c>
       <c r="H3" s="13">
-        <f>+G3</f>
-        <v>678.3</v>
-      </c>
-      <c r="J3" s="12">
+        <v>695.67</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="L3" s="12">
         <v>1720.2729999999999</v>
       </c>
-      <c r="K3" s="12">
+      <c r="M3" s="12">
         <v>1496.963</v>
       </c>
-      <c r="L3" s="12">
+      <c r="N3" s="12">
         <v>1235.576</v>
       </c>
-      <c r="M3" s="12">
+      <c r="O3" s="12">
         <f>H3+G3</f>
-        <v>1356.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1391.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -682,32 +729,35 @@
         <v>641.97699999999998</v>
       </c>
       <c r="D4" s="7">
-        <f>+K4-C4</f>
+        <f>+M4-C4</f>
         <v>687.42899999999997</v>
       </c>
       <c r="E4" s="7">
         <v>555.00300000000004</v>
       </c>
       <c r="F4" s="7">
-        <f>+L4-E4</f>
+        <f>+N4-E4</f>
         <v>549.08499999999992</v>
       </c>
       <c r="G4" s="7">
-        <f>+G3-G5</f>
-        <v>599.29999999999995</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="J4" s="5">
+        <v>615.87800000000004</v>
+      </c>
+      <c r="H4" s="7">
+        <v>615.87800000000004</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="L4" s="5">
         <v>1503.6469999999999</v>
       </c>
-      <c r="K4" s="5">
+      <c r="M4" s="5">
         <v>1329.4059999999999</v>
       </c>
-      <c r="L4" s="5">
+      <c r="N4" s="5">
         <v>1104.088</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
@@ -716,7 +766,7 @@
         <v>81.272000000000048</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" ref="D5:G5" si="0">+D3-D4</f>
+        <f t="shared" ref="D5:F5" si="0">+D3-D4</f>
         <v>86.284999999999968</v>
       </c>
       <c r="E5" s="7">
@@ -728,27 +778,32 @@
         <v>68.372000000000071</v>
       </c>
       <c r="G5" s="7">
+        <f>+G3-G4</f>
+        <v>79.791999999999916</v>
+      </c>
+      <c r="H5" s="7">
         <v>79</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="J5" s="5">
-        <f t="shared" ref="J5" si="1">+J3-J4</f>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="L5" s="5">
+        <f t="shared" ref="L5" si="1">+L3-L4</f>
         <v>216.62599999999998</v>
       </c>
-      <c r="K5" s="5">
-        <f>+K3-K4</f>
+      <c r="M5" s="5">
+        <f>+M3-M4</f>
         <v>167.55700000000002</v>
       </c>
-      <c r="L5" s="5">
-        <f>+L3-L4</f>
+      <c r="N5" s="5">
+        <f>+N3-N4</f>
         <v>131.48800000000006</v>
       </c>
-      <c r="M5" s="5">
-        <f>+M3*0.12</f>
-        <v>162.79199999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="5">
+        <f>+O3*0.12</f>
+        <v>166.96079999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -756,34 +811,36 @@
         <v>115.877</v>
       </c>
       <c r="D6" s="7">
-        <f>+K6-C6</f>
+        <f>+M6-C6</f>
         <v>122.764</v>
       </c>
       <c r="E6" s="7">
         <v>93.082999999999998</v>
       </c>
       <c r="F6" s="7">
-        <f>+L6-E6</f>
+        <f>+N6-E6</f>
         <v>89.955999999999989</v>
       </c>
       <c r="G6" s="7">
-        <v>90</v>
+        <v>87.328999999999994</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="J6" s="5">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="L6" s="5">
         <v>266.16399999999999</v>
       </c>
-      <c r="K6" s="5">
+      <c r="M6" s="5">
         <v>238.64099999999999</v>
       </c>
-      <c r="L6" s="5">
+      <c r="N6" s="5">
         <v>183.03899999999999</v>
       </c>
-      <c r="M6" s="5">
+      <c r="O6" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
@@ -805,41 +862,47 @@
       </c>
       <c r="G7" s="7">
         <f>+G5-G6</f>
-        <v>-11</v>
+        <v>-7.5370000000000772</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="J7" s="5">
-        <f t="shared" ref="J7" si="2">+J5-J6</f>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="L7" s="5">
+        <f t="shared" ref="L7" si="2">+L5-L6</f>
         <v>-49.538000000000011</v>
-      </c>
-      <c r="K7" s="5">
-        <f>+K5-K6</f>
-        <v>-71.083999999999975</v>
-      </c>
-      <c r="L7" s="5">
-        <f>+L5-L6</f>
-        <v>-51.550999999999931</v>
       </c>
       <c r="M7" s="5">
         <f>+M5-M6</f>
-        <v>62.791999999999973</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-71.083999999999975</v>
+      </c>
+      <c r="N7" s="5">
+        <f>+N5-N6</f>
+        <v>-51.550999999999931</v>
+      </c>
+      <c r="O7" s="5">
+        <f>+O5-O6</f>
+        <v>66.960799999999978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="5">
+      <c r="G8" s="7">
+        <f>1.058-0.466</f>
+        <v>0.59200000000000008</v>
+      </c>
+      <c r="L8" s="5">
         <v>1.1639999999999999</v>
       </c>
-      <c r="K8" s="5">
+      <c r="M8" s="5">
         <v>2.3479999999999999</v>
       </c>
-      <c r="L8" s="5">
+      <c r="N8" s="5">
         <v>2.7210000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -860,55 +923,55 @@
         <v>-21.583999999999918</v>
       </c>
       <c r="G9" s="7">
-        <f>+G7-G8</f>
-        <v>-11</v>
-      </c>
-      <c r="J9" s="5">
-        <f>+J7+J8</f>
-        <v>-48.374000000000009</v>
-      </c>
-      <c r="K9" s="5">
-        <f>+K7+K8</f>
-        <v>-68.735999999999976</v>
+        <f>+G7+G8</f>
+        <v>-6.9450000000000767</v>
       </c>
       <c r="L9" s="5">
         <f>+L7+L8</f>
-        <v>-48.829999999999927</v>
+        <v>-48.374000000000009</v>
       </c>
       <c r="M9" s="5">
         <f>+M7+M8</f>
-        <v>62.791999999999973</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-68.735999999999976</v>
+      </c>
+      <c r="N9" s="5">
+        <f>+N7+N8</f>
+        <v>-48.829999999999927</v>
+      </c>
+      <c r="O9" s="5">
+        <f>+O7+O8</f>
+        <v>66.960799999999978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="5">
+      <c r="L10" s="5">
         <v>18653</v>
       </c>
-      <c r="K10" s="5">
+      <c r="M10" s="5">
         <v>18928</v>
       </c>
-      <c r="L10" s="5">
+      <c r="N10" s="5">
         <v>19285</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="5">
+      <c r="L11" s="5">
         <v>20.48</v>
       </c>
-      <c r="K11" s="5">
+      <c r="M11" s="5">
         <v>-3.839</v>
       </c>
-      <c r="L11" s="5">
+      <c r="N11" s="5">
         <v>-0.82099999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>3</v>
       </c>
@@ -924,19 +987,21 @@
       </c>
       <c r="G13" s="11">
         <f>+G3/E3-1</f>
-        <v>9.7361511294750569E-2</v>
+        <v>0.125462896303139</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="K13" s="10">
-        <f>+K3/J3-1</f>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="M13" s="10">
+        <f>+M3/L3-1</f>
         <v>-0.12981079165923082</v>
       </c>
-      <c r="L13" s="10">
-        <f>+L3/K3-1</f>
+      <c r="N13" s="10">
+        <f>+N3/M3-1</f>
         <v>-0.17461153014469966</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
@@ -958,32 +1023,100 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="3"/>
-        <v>0.11646763968745394</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" ref="J14:K14" si="4">+J5/J3</f>
+        <v>0.1146980608621903</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" ref="L14" si="4">+L5/L3</f>
         <v>0.12592536184663713</v>
       </c>
-      <c r="K14" s="2">
-        <f>+K5/K3</f>
+      <c r="M14" s="2">
+        <f>+M5/M3</f>
         <v>0.11193129021892995</v>
       </c>
-      <c r="L14" s="2">
-        <f>+L5/L3</f>
+      <c r="N14" s="2">
+        <f>+N5/N3</f>
         <v>0.10641838300517334</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7">
+        <f>59.063+0.843</f>
+        <v>59.906000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7">
+        <v>28.97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7">
+        <v>152.85900000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="7">
+        <v>2.085</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="7">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="7">
+        <v>4.5590000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="7">
+        <f>SUM(G17:G22)</f>
+        <v>259.81900000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="1">
+      <c r="E29" s="7">
+        <v>63.197000000000003</v>
+      </c>
+      <c r="F29" s="7">
+        <f>+N29-E29</f>
+        <v>-64.018000000000001</v>
+      </c>
+      <c r="G29" s="7">
+        <v>-49.951999999999998</v>
+      </c>
+      <c r="L29" s="5">
         <v>-3.839</v>
       </c>
-      <c r="K18" s="1">
+      <c r="M29" s="5">
         <v>-3.839</v>
       </c>
-      <c r="L18" s="1">
+      <c r="N29" s="5">
         <v>-0.82099999999999995</v>
       </c>
     </row>
